--- a/results/case2_consq/sensitivity_case2_consq.xlsx
+++ b/results/case2_consq/sensitivity_case2_consq.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\results\case2_consq\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15C2FDB-5721-4440-B3B7-2627FDD9CB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="case2_consq" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case2_consq" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
-  <si>
-    <t>SUD - lower%</t>
-  </si>
-  <si>
-    <t>SUD - upper%</t>
-  </si>
-  <si>
-    <t>MUD - lower%</t>
-  </si>
-  <si>
-    <t>MUD - upper%</t>
-  </si>
-  <si>
-    <t>autoclave</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>cabinet washer</t>
-  </si>
-  <si>
-    <t>Life time</t>
-  </si>
-  <si>
-    <t>sterilization</t>
-  </si>
-  <si>
-    <t>surgery time</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{0BEDCF65-BD98-4CD7-BEE9-02EA7DC8C2AE}"/>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,136 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SUD - lower%</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SUD - upper%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MUD - lower%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MUD - upper%</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-0.18970000000000001</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.28460000000000002</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>autoclave</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-18.97%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.46%</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-0.12559999999999999</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.1885</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>cabinet washer</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-12.56%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>18.85%</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-0.4758</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Life time</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.76%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-47.58%</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-6.7900000000000002E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.68910000000000005</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>sterilization</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-6.79%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.91%</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-1.47E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3.09E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-9.8400000000000001E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.2074</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>surgery time</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-1.47%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3.09%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-9.84%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.74%</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-1.47E-2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3.09E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-0.434</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.89380000000000004</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-1.47%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3.09%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-43.40%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.38%</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/results/case2_consq/sensitivity_case2_consq.xlsx
+++ b/results/case2_consq/sensitivity_case2_consq.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-18.97%</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28.46%</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -500,13 +500,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-12.56%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>18.85%</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.04042272775304056</v>
       </c>
     </row>
     <row r="4">
@@ -525,15 +523,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.76%</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-47.58%</t>
-        </is>
+      <c r="D4" t="n">
+        <v>3.270740986138821</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.4088426232673527</v>
       </c>
     </row>
     <row r="5">
@@ -552,15 +546,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-6.79%</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>68.91%</t>
-        </is>
+      <c r="D5" t="n">
+        <v>-0.373047484068681</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3957756136561144</v>
       </c>
     </row>
     <row r="6">
@@ -569,25 +559,17 @@
           <t>surgery time</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-1.47%</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3.09%</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-9.84%</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20.74%</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.2771084337349398</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3942857142857144</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2771084337349399</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.3942857142857142</v>
       </c>
     </row>
     <row r="7">
@@ -596,25 +578,17 @@
           <t>total</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-1.47%</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3.09%</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-43.40%</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.38%</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0.2771084337349398</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.3942857142857144</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.17480193580508</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.447775451649993</v>
       </c>
     </row>
   </sheetData>

--- a/results/case2_consq/sensitivity_case2_consq.xlsx
+++ b/results/case2_consq/sensitivity_case2_consq.xlsx
@@ -471,15 +471,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D2" t="n">
+        <v>0.02034885673539117</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.006782952245130388</v>
       </c>
     </row>
     <row r="3">
@@ -547,10 +543,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.373047484068681</v>
+        <v>-0.3669206192406204</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3957756136561144</v>
+        <v>0.4329043643878894</v>
       </c>
     </row>
     <row r="6">
@@ -585,10 +581,10 @@
         <v>-0.3942857142857144</v>
       </c>
       <c r="D7" t="n">
-        <v>3.17480193580508</v>
+        <v>3.201277657368532</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.447775451649993</v>
+        <v>-0.4174296531633484</v>
       </c>
     </row>
   </sheetData>

--- a/results/case2_consq/sensitivity_case2_consq.xlsx
+++ b/results/case2_consq/sensitivity_case2_consq.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.02034885673539117</v>
+        <v>0.01606939634233581</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.006782952245130388</v>
+        <v>0.01606939634233581</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.04042272775304056</v>
+        <v>-0.03724191071797386</v>
       </c>
     </row>
     <row r="4">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3.270740986138821</v>
+        <v>3.360264315276283</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4088426232673527</v>
+        <v>-0.4200330394095355</v>
       </c>
     </row>
     <row r="5">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.3669206192406204</v>
+        <v>-0.3367089502904849</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4329043643878894</v>
+        <v>0.3988396281989913</v>
       </c>
     </row>
     <row r="6">
@@ -562,10 +562,10 @@
         <v>-0.3942857142857144</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2771084337349399</v>
+        <v>0.2771084337349396</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3942857142857142</v>
+        <v>-0.3942857142857143</v>
       </c>
     </row>
     <row r="7">
@@ -581,10 +581,10 @@
         <v>-0.3942857142857144</v>
       </c>
       <c r="D7" t="n">
-        <v>3.201277657368532</v>
+        <v>3.316733195063073</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4174296531633484</v>
+        <v>-0.4366516398718965</v>
       </c>
     </row>
   </sheetData>

--- a/results/case2_consq/sensitivity_case2_consq.xlsx
+++ b/results/case2_consq/sensitivity_case2_consq.xlsx
@@ -1,37 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\results\case2_consq\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6185679E-3D59-46D4-9F5C-CFDBA5A3BB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="37680" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case2_consq" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="case2_consq" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+  <si>
+    <t>SUD - lower%</t>
+  </si>
+  <si>
+    <t>SUD - upper%</t>
+  </si>
+  <si>
+    <t>MUD - lower%</t>
+  </si>
+  <si>
+    <t>MUD - upper%</t>
+  </si>
+  <si>
+    <t>autoclave</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>cabinet washer</t>
+  </si>
+  <si>
+    <t>Life time</t>
+  </si>
+  <si>
+    <t>sterilization</t>
+  </si>
+  <si>
+    <t>surgery time</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +103,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{02192DD8-32C6-47DC-9523-B2A144EC1733}"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,171 +429,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SUD - lower%</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SUD - upper%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MUD - lower%</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>MUD - upper%</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>autoclave</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01606939634233581</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01606939634233581</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>cabinet washer</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.03724191071797386</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Life time</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>3.360264315276283</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.4200330394095355</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>sterilization</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.3367089502904849</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3988396281989913</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>surgery time</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.2771084337349398</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.3942857142857144</v>
-      </c>
-      <c r="D6" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1.6069396342335809E-2</v>
+      </c>
+      <c r="E2">
+        <v>1.6069396342335809E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>-3.7241910717973857E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>3.3602643152762832</v>
+      </c>
+      <c r="E4">
+        <v>-0.42003303940953551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>-0.33826599291200721</v>
+      </c>
+      <c r="E5">
+        <v>0.39883963125630351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.27710843373493982</v>
+      </c>
+      <c r="C6">
+        <v>-0.39428571428571441</v>
+      </c>
+      <c r="D6">
         <v>0.2771084337349396</v>
       </c>
-      <c r="E6" t="n">
-        <v>-0.3942857142857143</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.2771084337349398</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.3942857142857144</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.316733195063073</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.4366516398718965</v>
+      <c r="E6">
+        <v>-0.39428571428571429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.27710843373493982</v>
+      </c>
+      <c r="C7">
+        <v>-0.39428571428571441</v>
+      </c>
+      <c r="D7">
+        <v>3.3151761524415511</v>
+      </c>
+      <c r="E7">
+        <v>-0.43665163681458441</v>
       </c>
     </row>
   </sheetData>

--- a/results/case2_consq/sensitivity_case2_consq.xlsx
+++ b/results/case2_consq/sensitivity_case2_consq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\results\case2_consq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6185679E-3D59-46D4-9F5C-CFDBA5A3BB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F786B23E-00D8-4474-AA90-D09D5CA07130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="37680" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case2_consq" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{02192DD8-32C6-47DC-9523-B2A144EC1733}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{1E5A559F-BA7F-4361-9633-1D6744B0221D}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -433,7 +433,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/case2_consq/sensitivity_case2_consq.xlsx
+++ b/results/case2_consq/sensitivity_case2_consq.xlsx
@@ -1,94 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\results\case2_consq\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F786B23E-00D8-4474-AA90-D09D5CA07130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="case2_consq" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case2_consq" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
-  <si>
-    <t>SUD - lower%</t>
-  </si>
-  <si>
-    <t>SUD - upper%</t>
-  </si>
-  <si>
-    <t>MUD - lower%</t>
-  </si>
-  <si>
-    <t>MUD - upper%</t>
-  </si>
-  <si>
-    <t>autoclave</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>cabinet washer</t>
-  </si>
-  <si>
-    <t>Life time</t>
-  </si>
-  <si>
-    <t>sterilization</t>
-  </si>
-  <si>
-    <t>surgery time</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -103,45 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{1E5A559F-BA7F-4361-9633-1D6744B0221D}"/>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -429,129 +420,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1.6069396342335809E-2</v>
-      </c>
-      <c r="E2">
-        <v>1.6069396342335809E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>-3.7241910717973857E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>3.3602643152762832</v>
-      </c>
-      <c r="E4">
-        <v>-0.42003303940953551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>-0.33826599291200721</v>
-      </c>
-      <c r="E5">
-        <v>0.39883963125630351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0.27710843373493982</v>
-      </c>
-      <c r="C6">
-        <v>-0.39428571428571441</v>
-      </c>
-      <c r="D6">
-        <v>0.2771084337349396</v>
-      </c>
-      <c r="E6">
-        <v>-0.39428571428571429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>0.27710843373493982</v>
-      </c>
-      <c r="C7">
-        <v>-0.39428571428571441</v>
-      </c>
-      <c r="D7">
-        <v>3.3151761524415511</v>
-      </c>
-      <c r="E7">
-        <v>-0.43665163681458441</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SUD - lower%</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SUD - upper%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MUD - lower%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MUD - upper%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>autoclave</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0422940090681269</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.02440038984699629</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>cabinet washer</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.03769971703485138</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Life time</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3.352400276805815</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.4190500346007267</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>sterilization</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4037424331462044</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.3421719516528934</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>surgery time</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2771084337349399</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3942857142857142</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2771084337349399</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.3942857142857144</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2771084337349399</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.3942857142857142</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.075545152755086</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.217607807421182</v>
       </c>
     </row>
   </sheetData>
